--- a/Documents/Timeline Project V1.0.xlsx
+++ b/Documents/Timeline Project V1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\JTK\Tingkat 2 2017\Semester 1\Proyek 3\Traveller Calender\Planning Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\JTK\Tingkat 2 2017\Semester 1\Proyek 3\Traveller Calender\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="11970" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="2025" windowWidth="11970" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,14 +356,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -372,16 +378,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,29 +678,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1">
         <v>13</v>
       </c>
@@ -724,7 +724,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -742,7 +742,7 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,10 +774,10 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -792,8 +792,8 @@
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -824,7 +824,7 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -840,10 +840,10 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -858,8 +858,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
@@ -872,10 +872,10 @@
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -890,8 +890,8 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -904,8 +904,8 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -920,8 +920,8 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
@@ -934,7 +934,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -952,7 +952,7 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1000,10 +1000,10 @@
       <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1014,10 +1014,10 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1029,11 +1029,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:A5"/>
@@ -1045,6 +1040,11 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
